--- a/xlsx/伊瓜苏瀑布_intext.xlsx
+++ b/xlsx/伊瓜苏瀑布_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="82">
   <si>
     <t>伊瓜苏瀑布</t>
   </si>
@@ -26,10 +26,10 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%A7%E6%A8%99%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>座標系統</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_伊瓜苏瀑布</t>
+    <t>座标系统</t>
+  </si>
+  <si>
+    <t>政策_政策_美国_伊瓜苏瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AB%8B%E6%96%B9%E7%B1%B3</t>
@@ -83,13 +83,13 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%98%87%E6%B8%AF</t>
   </si>
   <si>
-    <t>伊瓜蘇港</t>
+    <t>伊瓜苏港</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E6%96%B9%E5%B8%82_(%E5%B7%B4%E6%8B%89%E5%9C%AD)</t>
   </si>
   <si>
-    <t>東方市 (巴拉圭)</t>
+    <t>东方市 (巴拉圭)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%91%A1%E8%90%84%E7%89%99%E8%AF%AD</t>
@@ -125,13 +125,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E5%90%88%E5%9C%8B</t>
   </si>
   <si>
-    <t>聯合國</t>
+    <t>联合国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E9%81%BA%E7%94%A2</t>
   </si>
   <si>
-    <t>世界遺產</t>
+    <t>世界遗产</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%8B%8F%E5%9B%BD%E5%AE%B6%E5%85%AC%E5%9B%AD_(%E9%98%BF%E6%A0%B9%E5%BB%B7)</t>
@@ -143,13 +143,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9D%B1%E9%9D%9E</t>
   </si>
   <si>
-    <t>東非</t>
+    <t>东非</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%A4%9A%E5%88%A9%E4%BA%9E%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>維多利亞瀑布</t>
+    <t>维多利亚瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%8A%A0</t>
@@ -161,7 +161,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%B0%BC%E4%BA%9E%E5%8A%A0%E6%8B%89%E7%80%91%E5%B8%83</t>
   </si>
   <si>
-    <t>尼亞加拉瀑布</t>
+    <t>尼亚加拉瀑布</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%96%E7%95%8C%E4%B8%89%E5%A4%A7%E7%80%91%E5%B8%83</t>
@@ -191,9 +191,6 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BC%8A%E7%93%9C%E8%98%87%E6%B2%B3</t>
   </si>
   <si>
-    <t>伊瓜蘇河</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E6%8B%89%E9%82%A3%E6%B2%B3</t>
   </si>
   <si>
@@ -209,13 +206,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%B6%93%E6%BF%9F</t>
   </si>
   <si>
-    <t>經濟</t>
+    <t>经济</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%BD%B1</t>
   </si>
   <si>
-    <t>電影</t>
+    <t>电影</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%93%81%E9%87%91%E5%88%9A%E5%8B%87%E7%A0%B4%E5%A4%AA%E7%A9%BA%E5%9F%8E</t>
@@ -245,7 +242,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%90%8C%E6%80%A7%E6%88%80</t>
   </si>
   <si>
-    <t>同性戀</t>
+    <t>同性恋</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%A5%E5%85%89%E4%B9%8D%E6%B4%A9</t>
@@ -257,13 +254,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A6%82%E6%9E%9C%E9%80%99%E4%B8%96%E7%95%8C%E8%B2%93%E6%B6%88%E5%A4%B1%E4%BA%86</t>
   </si>
   <si>
-    <t>如果這世界貓消失了</t>
+    <t>如果这世界猫消失了</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%AD%E5%9F%BA%E5%B0%8E%E9%81%8A</t>
   </si>
   <si>
-    <t>維基導遊</t>
+    <t>维基导游</t>
   </si>
 </sst>
 </file>
@@ -1446,7 +1443,7 @@
         <v>57</v>
       </c>
       <c r="F29" t="s">
-        <v>58</v>
+        <v>10</v>
       </c>
       <c r="G29" t="n">
         <v>5</v>
@@ -1472,10 +1469,10 @@
         <v>29</v>
       </c>
       <c r="E30" t="s">
+        <v>58</v>
+      </c>
+      <c r="F30" t="s">
         <v>59</v>
-      </c>
-      <c r="F30" t="s">
-        <v>60</v>
       </c>
       <c r="G30" t="n">
         <v>8</v>
@@ -1501,10 +1498,10 @@
         <v>30</v>
       </c>
       <c r="E31" t="s">
+        <v>60</v>
+      </c>
+      <c r="F31" t="s">
         <v>61</v>
-      </c>
-      <c r="F31" t="s">
-        <v>62</v>
       </c>
       <c r="G31" t="n">
         <v>1</v>
@@ -1530,10 +1527,10 @@
         <v>31</v>
       </c>
       <c r="E32" t="s">
+        <v>62</v>
+      </c>
+      <c r="F32" t="s">
         <v>63</v>
-      </c>
-      <c r="F32" t="s">
-        <v>64</v>
       </c>
       <c r="G32" t="n">
         <v>1</v>
@@ -1617,10 +1614,10 @@
         <v>34</v>
       </c>
       <c r="E35" t="s">
+        <v>64</v>
+      </c>
+      <c r="F35" t="s">
         <v>65</v>
-      </c>
-      <c r="F35" t="s">
-        <v>66</v>
       </c>
       <c r="G35" t="n">
         <v>6</v>
@@ -1646,10 +1643,10 @@
         <v>35</v>
       </c>
       <c r="E36" t="s">
+        <v>66</v>
+      </c>
+      <c r="F36" t="s">
         <v>67</v>
-      </c>
-      <c r="F36" t="s">
-        <v>68</v>
       </c>
       <c r="G36" t="n">
         <v>1</v>
@@ -1675,10 +1672,10 @@
         <v>36</v>
       </c>
       <c r="E37" t="s">
+        <v>68</v>
+      </c>
+      <c r="F37" t="s">
         <v>69</v>
-      </c>
-      <c r="F37" t="s">
-        <v>70</v>
       </c>
       <c r="G37" t="n">
         <v>1</v>
@@ -1704,10 +1701,10 @@
         <v>37</v>
       </c>
       <c r="E38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F38" t="s">
         <v>71</v>
-      </c>
-      <c r="F38" t="s">
-        <v>72</v>
       </c>
       <c r="G38" t="n">
         <v>1</v>
@@ -1733,10 +1730,10 @@
         <v>38</v>
       </c>
       <c r="E39" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" t="s">
         <v>73</v>
-      </c>
-      <c r="F39" t="s">
-        <v>74</v>
       </c>
       <c r="G39" t="n">
         <v>1</v>
@@ -1762,10 +1759,10 @@
         <v>39</v>
       </c>
       <c r="E40" t="s">
+        <v>74</v>
+      </c>
+      <c r="F40" t="s">
         <v>75</v>
-      </c>
-      <c r="F40" t="s">
-        <v>76</v>
       </c>
       <c r="G40" t="n">
         <v>1</v>
@@ -1791,10 +1788,10 @@
         <v>40</v>
       </c>
       <c r="E41" t="s">
+        <v>76</v>
+      </c>
+      <c r="F41" t="s">
         <v>77</v>
-      </c>
-      <c r="F41" t="s">
-        <v>78</v>
       </c>
       <c r="G41" t="n">
         <v>1</v>
@@ -1820,10 +1817,10 @@
         <v>41</v>
       </c>
       <c r="E42" t="s">
+        <v>78</v>
+      </c>
+      <c r="F42" t="s">
         <v>79</v>
-      </c>
-      <c r="F42" t="s">
-        <v>80</v>
       </c>
       <c r="G42" t="n">
         <v>1</v>
@@ -1849,10 +1846,10 @@
         <v>42</v>
       </c>
       <c r="E43" t="s">
+        <v>80</v>
+      </c>
+      <c r="F43" t="s">
         <v>81</v>
-      </c>
-      <c r="F43" t="s">
-        <v>82</v>
       </c>
       <c r="G43" t="n">
         <v>1</v>
